--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/MASSACHUSETTS_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/MASSACHUSETTS_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chenalho</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -572,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -585,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -611,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -624,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -637,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -650,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -663,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -676,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -689,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -702,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -715,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -728,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -741,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Cristobal De Las Casas</t>
@@ -754,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -767,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -780,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -793,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -806,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -819,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Union Juarez</t>
@@ -832,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -863,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -876,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -889,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1182,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtemoc</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Xalpatlahuac</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1670,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Amatitan</t>
@@ -1683,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -1696,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -1709,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -1722,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Chiquilistlan</t>
@@ -1735,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Concepcion De Buenos Aires</t>
@@ -1748,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Etzatlan</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ixtlahuacan De Los Membrillos</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Teocuitatlan De Corona</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Huiramba</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Pajacuaran</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Paracuaro</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2343,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2356,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -2369,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2522,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -2535,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -2548,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -2561,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2592,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2623,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -2636,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -2649,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -2662,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -2675,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2688,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2701,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -2714,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2727,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Bartolome Quialana</t>
@@ -2740,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2753,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2766,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -2779,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Juan Lachigalla</t>
@@ -2792,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Lorenzo Cacaotepec</t>
@@ -2805,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>San Martin Peras</t>
@@ -2818,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San Martin Zacatepec</t>
@@ -2831,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Sebastian Nicananduta</t>
@@ -2844,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -2857,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -2870,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -2883,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Santo Tomas Jalieza</t>
@@ -2896,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -2909,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Teotitlan De Flores Magon</t>
@@ -2922,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -2935,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -2948,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2979,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -2992,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -3005,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3018,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -3031,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -3044,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Epatlan</t>
@@ -3057,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3070,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -3083,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3096,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -3109,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Juan N. Mendez</t>
@@ -3122,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3135,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -3148,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3161,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -3174,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>San Matias Tlalancaleca</t>
@@ -3187,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Santiago Miahuatlan</t>
@@ -3200,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3213,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -3226,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -3239,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3252,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Tlapanala</t>
@@ -3265,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -3278,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -3291,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -3304,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -3317,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -3361,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3392,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -3405,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -3418,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -3431,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3444,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -3457,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -3470,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -3483,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -3496,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3527,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -3540,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3571,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3584,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3597,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3628,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3641,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3672,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Miquihuana</t>
@@ -3685,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3698,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3711,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3742,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -3755,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>La Magdalena Tlaltelulco</t>
@@ -3768,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -3781,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3812,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Cazones</t>
@@ -3825,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -3838,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -3851,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3864,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -3877,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3890,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -3903,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Ixtaczoquitlan</t>
@@ -3916,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -3929,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -3942,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -3955,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -3968,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Panuco</t>
@@ -3981,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -3994,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -4007,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -4020,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -4033,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -4046,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -4059,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4072,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4085,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4116,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -4129,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -4142,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Teul De Gonzalez Ortega</t>
@@ -4155,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -4168,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Total</t>
